--- a/阿里云.xlsx
+++ b/阿里云.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>ip</t>
   </si>
@@ -114,35 +114,6 @@
   </si>
   <si>
     <t>rm-wz9rp0287iv31gatnoo.mysql.rds.aliyuncs.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-VPN: ssl (使用IE访问url 输入对应帐号)
-ip:https://121.201.66.2:6443/
-user:temp_vpn
-password:temp@ccfax.cn
-DB:
-ip 172.16.20.90
-port 3306
-user:temp_DB
-password:temp@ccfax.cn
-web:
-ip 172.16.20.79
-port 22
-user: temp_web
-password: temp@ccfax.cn</t>
-  </si>
-  <si>
-    <t>图片：http://pic.ccfax.cn</t>
-  </si>
-  <si>
-    <t>图片路劲</t>
-  </si>
-  <si>
-    <t>http://apitest.ccfax.cn</t>
-  </si>
-  <si>
-    <t>http://weixintest.ccfax.cn</t>
   </si>
   <si>
     <t>域名增加解析IPV6</t>
@@ -576,7 +547,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A19" sqref="A19:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -589,7 +560,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -702,28 +673,14 @@
         <v>13923861174</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="243">
-      <c r="A17" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>20</v>
-      </c>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="A20" s="3"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="A21" s="3"/>
     </row>
     <row r="24" spans="1:4" ht="14.25">
       <c r="D24" s="4"/>
@@ -737,10 +694,6 @@
     <mergeCell ref="A9:E10"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A20" r:id="rId1"/>
-    <hyperlink ref="A21" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -761,7 +714,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
